--- a/Data/TEACHER.xlsx
+++ b/Data/TEACHER.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheets>
-    <sheet name="אלפון מורים" sheetId="1" r:id="rId9"/>
+    <sheet name="אלפון מורים" sheetId="1" r:id="rId37"/>
   </sheets>
   <definedNames/>
 </workbook>
@@ -392,7 +392,7 @@
     <t>damado1993@gmail.com</t>
   </si>
   <si>
-    <t>חינוך, מתמטיקה, מתמטיקה הטרוגני, מתמטיקה מיצוי, תגבור מתמטיקה</t>
+    <t>מתמטיקה, מתמטיקה הטרוגני, מתמטיקה מיצוי, תגבור מתמטיקה</t>
   </si>
   <si>
     <t>16</t>
@@ -1769,7 +1769,7 @@
     <t>hadadsapir11@gmail.com</t>
   </si>
   <si>
-    <t>אנגלית, גיאוגרפיה, חינוך, לשון והבעה, ספרות, תרבות ישראל</t>
+    <t>אנגלית, גיאוגרפיה, חינוך, לשון והבעה, ספרות, פרטני, תרבות ישראל</t>
   </si>
   <si>
     <t>81</t>
@@ -2513,7 +2513,7 @@
     <t>shiranmymoni1989@gmail.com</t>
   </si>
   <si>
-    <t>ביולוגיה, חינוך, כימיה, מדעים, תרבות ישראל</t>
+    <t>ביולוגיה, חינוך, כימיה, מדעים, תגבור לימודי, תרבות ישראל</t>
   </si>
   <si>
     <t>117</t>
@@ -9220,7 +9220,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:L183"/>
+  <dimension ref="A1:K183"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="1">
       <pane/>
@@ -9238,7 +9238,6 @@
     <col max="9" min="9" customWidth="1" width="52"/>
     <col max="10" min="10" customWidth="1" width="28"/>
     <col max="11" min="11" customWidth="1" width="14"/>
-    <col max="12" min="12" customWidth="1" width="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9285,9 +9284,6 @@
       <c t="s" s="539" r="K3">
         <v>12</v>
       </c>
-      <c t="s" s="539" r="L3">
-        <v>12</v>
-      </c>
     </row>
     <row r="4">
       <c t="s" s="541" r="A4">
@@ -9320,10 +9316,7 @@
       <c t="s" s="541" r="J4">
         <v>20</v>
       </c>
-      <c s="541" r="K4">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L4">
+      <c t="s" s="541" r="K4">
         <v>21</v>
       </c>
     </row>
@@ -9358,10 +9351,7 @@
       <c t="s" s="541" r="J5">
         <v>28</v>
       </c>
-      <c s="541" r="K5">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L5">
+      <c t="s" s="541" r="K5">
         <v>21</v>
       </c>
     </row>
@@ -9399,9 +9389,6 @@
       <c s="541" r="K6">
         <v/>
       </c>
-      <c s="541" r="L6">
-        <v/>
-      </c>
     </row>
     <row r="7">
       <c t="s" s="541" r="A7">
@@ -9437,9 +9424,6 @@
       <c s="541" r="K7">
         <v/>
       </c>
-      <c s="541" r="L7">
-        <v/>
-      </c>
     </row>
     <row r="8">
       <c t="s" s="541" r="A8">
@@ -9475,9 +9459,6 @@
       <c s="541" r="K8">
         <v/>
       </c>
-      <c s="541" r="L8">
-        <v/>
-      </c>
     </row>
     <row r="9">
       <c t="s" s="541" r="A9">
@@ -9510,10 +9491,7 @@
       <c t="s" s="541" r="J9">
         <v>37</v>
       </c>
-      <c s="541" r="K9">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L9">
+      <c t="s" s="541" r="K9">
         <v>21</v>
       </c>
     </row>
@@ -9548,10 +9526,7 @@
       <c t="s" s="541" r="J10">
         <v>37</v>
       </c>
-      <c s="541" r="K10">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L10">
+      <c t="s" s="541" r="K10">
         <v>21</v>
       </c>
     </row>
@@ -9586,10 +9561,7 @@
       <c t="s" s="541" r="J11">
         <v>37</v>
       </c>
-      <c s="541" r="K11">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L11">
+      <c t="s" s="541" r="K11">
         <v>21</v>
       </c>
     </row>
@@ -9627,9 +9599,6 @@
       <c s="541" r="K12">
         <v/>
       </c>
-      <c s="541" r="L12">
-        <v/>
-      </c>
     </row>
     <row r="13">
       <c t="s" s="541" r="A13">
@@ -9662,10 +9631,7 @@
       <c t="s" s="541" r="J13">
         <v>37</v>
       </c>
-      <c s="541" r="K13">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L13">
+      <c t="s" s="541" r="K13">
         <v>21</v>
       </c>
     </row>
@@ -9700,10 +9666,7 @@
       <c t="s" s="541" r="J14">
         <v>99</v>
       </c>
-      <c s="541" r="K14">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L14">
+      <c t="s" s="541" r="K14">
         <v>21</v>
       </c>
     </row>
@@ -9738,10 +9701,7 @@
       <c t="s" s="541" r="J15">
         <v>106</v>
       </c>
-      <c s="541" r="K15">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L15">
+      <c t="s" s="541" r="K15">
         <v>21</v>
       </c>
     </row>
@@ -9776,10 +9736,7 @@
       <c t="s" s="541" r="J16">
         <v>37</v>
       </c>
-      <c s="541" r="K16">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L16">
+      <c t="s" s="541" r="K16">
         <v>21</v>
       </c>
     </row>
@@ -9817,9 +9774,6 @@
       <c s="541" r="K17">
         <v/>
       </c>
-      <c s="541" r="L17">
-        <v/>
-      </c>
     </row>
     <row r="18">
       <c t="s" s="541" r="A18">
@@ -9855,9 +9809,6 @@
       <c s="541" r="K18">
         <v/>
       </c>
-      <c s="541" r="L18">
-        <v/>
-      </c>
     </row>
     <row r="19">
       <c t="s" s="541" r="A19">
@@ -9890,10 +9841,7 @@
       <c t="s" s="541" r="J19">
         <v>37</v>
       </c>
-      <c s="541" r="K19">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L19">
+      <c t="s" s="541" r="K19">
         <v>21</v>
       </c>
     </row>
@@ -9928,10 +9876,7 @@
       <c t="s" s="541" r="J20">
         <v>142</v>
       </c>
-      <c s="541" r="K20">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L20">
+      <c t="s" s="541" r="K20">
         <v>21</v>
       </c>
     </row>
@@ -9966,10 +9911,7 @@
       <c t="s" s="541" r="J21">
         <v>149</v>
       </c>
-      <c s="541" r="K21">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L21">
+      <c t="s" s="541" r="K21">
         <v>21</v>
       </c>
     </row>
@@ -10004,10 +9946,7 @@
       <c t="s" s="541" r="J22">
         <v>37</v>
       </c>
-      <c s="541" r="K22">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L22">
+      <c t="s" s="541" r="K22">
         <v>21</v>
       </c>
     </row>
@@ -10045,9 +9984,6 @@
       <c s="541" r="K23">
         <v/>
       </c>
-      <c s="541" r="L23">
-        <v/>
-      </c>
     </row>
     <row r="24">
       <c t="s" s="541" r="A24">
@@ -10080,10 +10016,7 @@
       <c t="s" s="541" r="J24">
         <v>99</v>
       </c>
-      <c s="541" r="K24">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L24">
+      <c t="s" s="541" r="K24">
         <v>21</v>
       </c>
     </row>
@@ -10121,9 +10054,6 @@
       <c s="541" r="K25">
         <v/>
       </c>
-      <c s="541" r="L25">
-        <v/>
-      </c>
     </row>
     <row r="26">
       <c t="s" s="541" r="A26">
@@ -10159,9 +10089,6 @@
       <c s="541" r="K26">
         <v/>
       </c>
-      <c s="541" r="L26">
-        <v/>
-      </c>
     </row>
     <row r="27">
       <c t="s" s="541" r="A27">
@@ -10197,9 +10124,6 @@
       <c s="541" r="K27">
         <v/>
       </c>
-      <c s="541" r="L27">
-        <v/>
-      </c>
     </row>
     <row r="28">
       <c t="s" s="541" r="A28">
@@ -10232,10 +10156,7 @@
       <c t="s" s="541" r="J28">
         <v>198</v>
       </c>
-      <c s="541" r="K28">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L28">
+      <c t="s" s="541" r="K28">
         <v>21</v>
       </c>
     </row>
@@ -10270,10 +10191,7 @@
       <c t="s" s="541" r="J29">
         <v>37</v>
       </c>
-      <c s="541" r="K29">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L29">
+      <c t="s" s="541" r="K29">
         <v>21</v>
       </c>
     </row>
@@ -10311,9 +10229,6 @@
       <c s="541" r="K30">
         <v/>
       </c>
-      <c s="541" r="L30">
-        <v/>
-      </c>
     </row>
     <row r="31">
       <c t="s" s="541" r="A31">
@@ -10346,10 +10261,7 @@
       <c t="s" s="541" r="J31">
         <v>223</v>
       </c>
-      <c s="541" r="K31">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L31">
+      <c t="s" s="541" r="K31">
         <v>21</v>
       </c>
     </row>
@@ -10384,10 +10296,7 @@
       <c t="s" s="541" r="J32">
         <v>37</v>
       </c>
-      <c s="541" r="K32">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L32">
+      <c t="s" s="541" r="K32">
         <v>21</v>
       </c>
     </row>
@@ -10422,10 +10331,7 @@
       <c t="s" s="541" r="J33">
         <v>120</v>
       </c>
-      <c s="541" r="K33">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L33">
+      <c t="s" s="541" r="K33">
         <v>21</v>
       </c>
     </row>
@@ -10460,10 +10366,7 @@
       <c t="s" s="541" r="J34">
         <v>37</v>
       </c>
-      <c s="541" r="K34">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L34">
+      <c t="s" s="541" r="K34">
         <v>21</v>
       </c>
     </row>
@@ -10498,10 +10401,7 @@
       <c t="s" s="541" r="J35">
         <v>37</v>
       </c>
-      <c s="541" r="K35">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L35">
+      <c t="s" s="541" r="K35">
         <v>21</v>
       </c>
     </row>
@@ -10536,10 +10436,7 @@
       <c t="s" s="541" r="J36">
         <v>37</v>
       </c>
-      <c s="541" r="K36">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L36">
+      <c t="s" s="541" r="K36">
         <v>21</v>
       </c>
     </row>
@@ -10574,10 +10471,7 @@
       <c t="s" s="541" r="J37">
         <v>37</v>
       </c>
-      <c s="541" r="K37">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L37">
+      <c t="s" s="541" r="K37">
         <v>21</v>
       </c>
     </row>
@@ -10615,9 +10509,6 @@
       <c s="541" r="K38">
         <v/>
       </c>
-      <c s="541" r="L38">
-        <v/>
-      </c>
     </row>
     <row r="39">
       <c t="s" s="541" r="A39">
@@ -10653,9 +10544,6 @@
       <c s="541" r="K39">
         <v/>
       </c>
-      <c s="541" r="L39">
-        <v/>
-      </c>
     </row>
     <row r="40">
       <c t="s" s="541" r="A40">
@@ -10688,10 +10576,7 @@
       <c t="s" s="541" r="J40">
         <v>285</v>
       </c>
-      <c s="541" r="K40">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L40">
+      <c t="s" s="541" r="K40">
         <v>21</v>
       </c>
     </row>
@@ -10729,9 +10614,6 @@
       <c s="541" r="K41">
         <v/>
       </c>
-      <c s="541" r="L41">
-        <v/>
-      </c>
     </row>
     <row r="42">
       <c t="s" s="541" r="A42">
@@ -10764,10 +10646,7 @@
       <c t="s" s="541" r="J42">
         <v>106</v>
       </c>
-      <c s="541" r="K42">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L42">
+      <c t="s" s="541" r="K42">
         <v>21</v>
       </c>
     </row>
@@ -10802,10 +10681,7 @@
       <c t="s" s="541" r="J43">
         <v>37</v>
       </c>
-      <c s="541" r="K43">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L43">
+      <c t="s" s="541" r="K43">
         <v>21</v>
       </c>
     </row>
@@ -10840,10 +10716,7 @@
       <c t="s" s="541" r="J44">
         <v>312</v>
       </c>
-      <c s="541" r="K44">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L44">
+      <c t="s" s="541" r="K44">
         <v>21</v>
       </c>
     </row>
@@ -10878,10 +10751,7 @@
       <c t="s" s="541" r="J45">
         <v>223</v>
       </c>
-      <c s="541" r="K45">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L45">
+      <c t="s" s="541" r="K45">
         <v>321</v>
       </c>
     </row>
@@ -10916,10 +10786,7 @@
       <c t="s" s="541" r="J46">
         <v>214</v>
       </c>
-      <c s="541" r="K46">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L46">
+      <c t="s" s="541" r="K46">
         <v>21</v>
       </c>
     </row>
@@ -10954,10 +10821,7 @@
       <c t="s" s="541" r="J47">
         <v>337</v>
       </c>
-      <c s="541" r="K47">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L47">
+      <c t="s" s="541" r="K47">
         <v>21</v>
       </c>
     </row>
@@ -10992,10 +10856,7 @@
       <c t="s" s="541" r="J48">
         <v>120</v>
       </c>
-      <c s="541" r="K48">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L48">
+      <c t="s" s="541" r="K48">
         <v>21</v>
       </c>
     </row>
@@ -11030,10 +10891,7 @@
       <c t="s" s="541" r="J49">
         <v>352</v>
       </c>
-      <c s="541" r="K49">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L49">
+      <c t="s" s="541" r="K49">
         <v>21</v>
       </c>
     </row>
@@ -11068,10 +10926,7 @@
       <c t="s" s="541" r="J50">
         <v>37</v>
       </c>
-      <c s="541" r="K50">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L50">
+      <c t="s" s="541" r="K50">
         <v>321</v>
       </c>
     </row>
@@ -11106,10 +10961,7 @@
       <c t="s" s="541" r="J51">
         <v>37</v>
       </c>
-      <c s="541" r="K51">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L51">
+      <c t="s" s="541" r="K51">
         <v>21</v>
       </c>
     </row>
@@ -11144,10 +10996,7 @@
       <c t="s" s="541" r="J52">
         <v>375</v>
       </c>
-      <c s="541" r="K52">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L52">
+      <c t="s" s="541" r="K52">
         <v>21</v>
       </c>
     </row>
@@ -11185,9 +11034,6 @@
       <c s="541" r="K53">
         <v/>
       </c>
-      <c s="541" r="L53">
-        <v/>
-      </c>
     </row>
     <row r="54">
       <c t="s" s="541" r="A54">
@@ -11223,9 +11069,6 @@
       <c s="541" r="K54">
         <v/>
       </c>
-      <c s="541" r="L54">
-        <v/>
-      </c>
     </row>
     <row r="55">
       <c t="s" s="541" r="A55">
@@ -11261,9 +11104,6 @@
       <c s="541" r="K55">
         <v/>
       </c>
-      <c s="541" r="L55">
-        <v/>
-      </c>
     </row>
     <row r="56">
       <c t="s" s="541" r="A56">
@@ -11296,10 +11136,7 @@
       <c t="s" s="541" r="J56">
         <v>375</v>
       </c>
-      <c s="541" r="K56">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L56">
+      <c t="s" s="541" r="K56">
         <v>21</v>
       </c>
     </row>
@@ -11337,9 +11174,6 @@
       <c s="541" r="K57">
         <v/>
       </c>
-      <c s="541" r="L57">
-        <v/>
-      </c>
     </row>
     <row r="58">
       <c t="s" s="541" r="A58">
@@ -11372,10 +11206,7 @@
       <c t="s" s="541" r="J58">
         <v>37</v>
       </c>
-      <c s="541" r="K58">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L58">
+      <c t="s" s="541" r="K58">
         <v>21</v>
       </c>
     </row>
@@ -11410,10 +11241,7 @@
       <c t="s" s="541" r="J59">
         <v>37</v>
       </c>
-      <c s="541" r="K59">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L59">
+      <c t="s" s="541" r="K59">
         <v>21</v>
       </c>
     </row>
@@ -11448,10 +11276,7 @@
       <c t="s" s="541" r="J60">
         <v>429</v>
       </c>
-      <c s="541" r="K60">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L60">
+      <c t="s" s="541" r="K60">
         <v>21</v>
       </c>
     </row>
@@ -11486,10 +11311,7 @@
       <c t="s" s="541" r="J61">
         <v>120</v>
       </c>
-      <c s="541" r="K61">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L61">
+      <c t="s" s="541" r="K61">
         <v>21</v>
       </c>
     </row>
@@ -11524,10 +11346,7 @@
       <c t="s" s="541" r="J62">
         <v>223</v>
       </c>
-      <c s="541" r="K62">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L62">
+      <c t="s" s="541" r="K62">
         <v>21</v>
       </c>
     </row>
@@ -11565,9 +11384,6 @@
       <c s="541" r="K63">
         <v/>
       </c>
-      <c s="541" r="L63">
-        <v/>
-      </c>
     </row>
     <row r="64">
       <c t="s" s="541" r="A64">
@@ -11603,9 +11419,6 @@
       <c s="541" r="K64">
         <v/>
       </c>
-      <c s="541" r="L64">
-        <v/>
-      </c>
     </row>
     <row r="65">
       <c t="s" s="541" r="A65">
@@ -11638,10 +11451,7 @@
       <c t="s" s="541" r="J65">
         <v>461</v>
       </c>
-      <c s="541" r="K65">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L65">
+      <c t="s" s="541" r="K65">
         <v>21</v>
       </c>
     </row>
@@ -11676,10 +11486,7 @@
       <c t="s" s="541" r="J66">
         <v>467</v>
       </c>
-      <c s="541" r="K66">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L66">
+      <c t="s" s="541" r="K66">
         <v>21</v>
       </c>
     </row>
@@ -11717,9 +11524,6 @@
       <c s="541" r="K67">
         <v/>
       </c>
-      <c s="541" r="L67">
-        <v/>
-      </c>
     </row>
     <row r="68">
       <c t="s" s="541" r="A68">
@@ -11755,9 +11559,6 @@
       <c s="541" r="K68">
         <v/>
       </c>
-      <c s="541" r="L68">
-        <v/>
-      </c>
     </row>
     <row r="69">
       <c t="s" s="541" r="A69">
@@ -11793,9 +11594,6 @@
       <c s="541" r="K69">
         <v/>
       </c>
-      <c s="541" r="L69">
-        <v/>
-      </c>
     </row>
     <row r="70">
       <c t="s" s="541" r="A70">
@@ -11828,10 +11626,7 @@
       <c t="s" s="541" r="J70">
         <v>497</v>
       </c>
-      <c s="541" r="K70">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L70">
+      <c t="s" s="541" r="K70">
         <v>21</v>
       </c>
     </row>
@@ -11866,10 +11661,7 @@
       <c t="s" s="541" r="J71">
         <v>223</v>
       </c>
-      <c s="541" r="K71">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L71">
+      <c t="s" s="541" r="K71">
         <v>21</v>
       </c>
     </row>
@@ -11904,10 +11696,7 @@
       <c t="s" s="541" r="J72">
         <v>223</v>
       </c>
-      <c s="541" r="K72">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L72">
+      <c t="s" s="541" r="K72">
         <v>21</v>
       </c>
     </row>
@@ -11942,10 +11731,7 @@
       <c t="s" s="541" r="J73">
         <v>429</v>
       </c>
-      <c s="541" r="K73">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L73">
+      <c t="s" s="541" r="K73">
         <v>21</v>
       </c>
     </row>
@@ -11983,9 +11769,6 @@
       <c s="541" r="K74">
         <v/>
       </c>
-      <c s="541" r="L74">
-        <v/>
-      </c>
     </row>
     <row r="75">
       <c t="s" s="541" r="A75">
@@ -12018,10 +11801,7 @@
       <c t="s" s="541" r="J75">
         <v>312</v>
       </c>
-      <c s="541" r="K75">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L75">
+      <c t="s" s="541" r="K75">
         <v>21</v>
       </c>
     </row>
@@ -12059,9 +11839,6 @@
       <c s="541" r="K76">
         <v/>
       </c>
-      <c s="541" r="L76">
-        <v/>
-      </c>
     </row>
     <row r="77">
       <c t="s" s="541" r="A77">
@@ -12097,9 +11874,6 @@
       <c s="541" r="K77">
         <v/>
       </c>
-      <c s="541" r="L77">
-        <v/>
-      </c>
     </row>
     <row r="78">
       <c t="s" s="541" r="A78">
@@ -12132,10 +11906,7 @@
       <c s="541" r="J78">
         <v/>
       </c>
-      <c s="541" r="K78">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L78">
+      <c t="s" s="541" r="K78">
         <v>321</v>
       </c>
     </row>
@@ -12173,9 +11944,6 @@
       <c s="541" r="K79">
         <v/>
       </c>
-      <c s="541" r="L79">
-        <v/>
-      </c>
     </row>
     <row r="80">
       <c t="s" s="541" r="A80">
@@ -12208,10 +11976,7 @@
       <c t="s" s="541" r="J80">
         <v>564</v>
       </c>
-      <c s="541" r="K80">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L80">
+      <c t="s" s="541" r="K80">
         <v>21</v>
       </c>
     </row>
@@ -12246,10 +12011,7 @@
       <c t="s" s="541" r="J81">
         <v>572</v>
       </c>
-      <c s="541" r="K81">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L81">
+      <c t="s" s="541" r="K81">
         <v>21</v>
       </c>
     </row>
@@ -12284,10 +12046,7 @@
       <c t="s" s="541" r="J82">
         <v>375</v>
       </c>
-      <c s="541" r="K82">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L82">
+      <c t="s" s="541" r="K82">
         <v>21</v>
       </c>
     </row>
@@ -12325,9 +12084,6 @@
       <c s="541" r="K83">
         <v/>
       </c>
-      <c s="541" r="L83">
-        <v/>
-      </c>
     </row>
     <row r="84">
       <c t="s" s="541" r="A84">
@@ -12360,10 +12116,7 @@
       <c t="s" s="541" r="J84">
         <v>594</v>
       </c>
-      <c s="541" r="K84">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L84">
+      <c t="s" s="541" r="K84">
         <v>21</v>
       </c>
     </row>
@@ -12398,10 +12151,7 @@
       <c t="s" s="541" r="J85">
         <v>142</v>
       </c>
-      <c s="541" r="K85">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L85">
+      <c t="s" s="541" r="K85">
         <v>21</v>
       </c>
     </row>
@@ -12436,10 +12186,7 @@
       <c t="s" s="541" r="J86">
         <v>606</v>
       </c>
-      <c s="541" r="K86">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L86">
+      <c t="s" s="541" r="K86">
         <v>21</v>
       </c>
     </row>
@@ -12474,10 +12221,7 @@
       <c t="s" s="541" r="J87">
         <v>37</v>
       </c>
-      <c s="541" r="K87">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L87">
+      <c t="s" s="541" r="K87">
         <v>21</v>
       </c>
     </row>
@@ -12512,10 +12256,7 @@
       <c t="s" s="541" r="J88">
         <v>223</v>
       </c>
-      <c s="541" r="K88">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L88">
+      <c t="s" s="541" r="K88">
         <v>21</v>
       </c>
     </row>
@@ -12553,9 +12294,6 @@
       <c s="541" r="K89">
         <v/>
       </c>
-      <c s="541" r="L89">
-        <v/>
-      </c>
     </row>
     <row r="90">
       <c t="s" s="541" r="A90">
@@ -12591,9 +12329,6 @@
       <c s="541" r="K90">
         <v/>
       </c>
-      <c s="541" r="L90">
-        <v/>
-      </c>
     </row>
     <row r="91">
       <c t="s" s="541" r="A91">
@@ -12629,9 +12364,6 @@
       <c s="541" r="K91">
         <v/>
       </c>
-      <c s="541" r="L91">
-        <v/>
-      </c>
     </row>
     <row r="92">
       <c t="s" s="541" r="A92">
@@ -12667,9 +12399,6 @@
       <c s="541" r="K92">
         <v/>
       </c>
-      <c s="541" r="L92">
-        <v/>
-      </c>
     </row>
     <row r="93">
       <c t="s" s="541" r="A93">
@@ -12702,10 +12431,7 @@
       <c t="s" s="541" r="J93">
         <v>375</v>
       </c>
-      <c s="541" r="K93">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L93">
+      <c t="s" s="541" r="K93">
         <v>21</v>
       </c>
     </row>
@@ -12740,10 +12466,7 @@
       <c t="s" s="541" r="J94">
         <v>662</v>
       </c>
-      <c s="541" r="K94">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L94">
+      <c t="s" s="541" r="K94">
         <v>21</v>
       </c>
     </row>
@@ -12778,10 +12501,7 @@
       <c t="s" s="541" r="J95">
         <v>669</v>
       </c>
-      <c s="541" r="K95">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L95">
+      <c t="s" s="541" r="K95">
         <v>21</v>
       </c>
     </row>
@@ -12816,10 +12536,7 @@
       <c t="s" s="541" r="J96">
         <v>120</v>
       </c>
-      <c s="541" r="K96">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L96">
+      <c t="s" s="541" r="K96">
         <v>21</v>
       </c>
     </row>
@@ -12854,10 +12571,7 @@
       <c t="s" s="541" r="J97">
         <v>682</v>
       </c>
-      <c s="541" r="K97">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L97">
+      <c t="s" s="541" r="K97">
         <v>21</v>
       </c>
     </row>
@@ -12892,10 +12606,7 @@
       <c t="s" s="541" r="J98">
         <v>37</v>
       </c>
-      <c s="541" r="K98">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L98">
+      <c t="s" s="541" r="K98">
         <v>21</v>
       </c>
     </row>
@@ -12930,10 +12641,7 @@
       <c t="s" s="541" r="J99">
         <v>37</v>
       </c>
-      <c s="541" r="K99">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L99">
+      <c t="s" s="541" r="K99">
         <v>21</v>
       </c>
     </row>
@@ -12971,9 +12679,6 @@
       <c s="541" r="K100">
         <v/>
       </c>
-      <c s="541" r="L100">
-        <v/>
-      </c>
     </row>
     <row r="101">
       <c t="s" s="541" r="A101">
@@ -13009,9 +12714,6 @@
       <c s="541" r="K101">
         <v/>
       </c>
-      <c s="541" r="L101">
-        <v/>
-      </c>
     </row>
     <row r="102">
       <c t="s" s="541" r="A102">
@@ -13044,10 +12746,7 @@
       <c t="s" s="541" r="J102">
         <v>37</v>
       </c>
-      <c s="541" r="K102">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L102">
+      <c t="s" s="541" r="K102">
         <v>21</v>
       </c>
     </row>
@@ -13085,9 +12784,6 @@
       <c s="541" r="K103">
         <v/>
       </c>
-      <c s="541" r="L103">
-        <v/>
-      </c>
     </row>
     <row r="104">
       <c t="s" s="541" r="A104">
@@ -13120,10 +12816,7 @@
       <c t="s" s="541" r="J104">
         <v>223</v>
       </c>
-      <c s="541" r="K104">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L104">
+      <c t="s" s="541" r="K104">
         <v>21</v>
       </c>
     </row>
@@ -13158,10 +12851,7 @@
       <c t="s" s="541" r="J105">
         <v>37</v>
       </c>
-      <c s="541" r="K105">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L105">
+      <c t="s" s="541" r="K105">
         <v>21</v>
       </c>
     </row>
@@ -13196,10 +12886,7 @@
       <c t="s" s="541" r="J106">
         <v>37</v>
       </c>
-      <c s="541" r="K106">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L106">
+      <c t="s" s="541" r="K106">
         <v>21</v>
       </c>
     </row>
@@ -13234,10 +12921,7 @@
       <c t="s" s="541" r="J107">
         <v>746</v>
       </c>
-      <c s="541" r="K107">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L107">
+      <c t="s" s="541" r="K107">
         <v>21</v>
       </c>
     </row>
@@ -13272,10 +12956,7 @@
       <c t="s" s="541" r="J108">
         <v>37</v>
       </c>
-      <c s="541" r="K108">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L108">
+      <c t="s" s="541" r="K108">
         <v>21</v>
       </c>
     </row>
@@ -13313,9 +12994,6 @@
       <c s="541" r="K109">
         <v/>
       </c>
-      <c s="541" r="L109">
-        <v/>
-      </c>
     </row>
     <row r="110">
       <c t="s" s="541" r="A110">
@@ -13348,10 +13026,7 @@
       <c t="s" s="541" r="J110">
         <v>769</v>
       </c>
-      <c s="541" r="K110">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L110">
+      <c t="s" s="541" r="K110">
         <v>21</v>
       </c>
     </row>
@@ -13386,10 +13061,7 @@
       <c t="s" s="541" r="J111">
         <v>37</v>
       </c>
-      <c s="541" r="K111">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L111">
+      <c t="s" s="541" r="K111">
         <v>21</v>
       </c>
     </row>
@@ -13427,9 +13099,6 @@
       <c s="541" r="K112">
         <v/>
       </c>
-      <c s="541" r="L112">
-        <v/>
-      </c>
     </row>
     <row r="113">
       <c t="s" s="541" r="A113">
@@ -13462,10 +13131,7 @@
       <c t="s" s="541" r="J113">
         <v>37</v>
       </c>
-      <c s="541" r="K113">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L113">
+      <c t="s" s="541" r="K113">
         <v>791</v>
       </c>
     </row>
@@ -13503,9 +13169,6 @@
       <c s="541" r="K114">
         <v/>
       </c>
-      <c s="541" r="L114">
-        <v/>
-      </c>
     </row>
     <row r="115">
       <c t="s" s="541" r="A115">
@@ -13538,10 +13201,7 @@
       <c t="s" s="541" r="J115">
         <v>806</v>
       </c>
-      <c s="541" r="K115">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L115">
+      <c t="s" s="541" r="K115">
         <v>21</v>
       </c>
     </row>
@@ -13579,9 +13239,6 @@
       <c s="541" r="K116">
         <v/>
       </c>
-      <c s="541" r="L116">
-        <v/>
-      </c>
     </row>
     <row r="117">
       <c t="s" s="541" r="A117">
@@ -13614,10 +13271,7 @@
       <c t="s" s="541" r="J117">
         <v>37</v>
       </c>
-      <c s="541" r="K117">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L117">
+      <c t="s" s="541" r="K117">
         <v>21</v>
       </c>
     </row>
@@ -13652,10 +13306,7 @@
       <c t="s" s="541" r="J118">
         <v>828</v>
       </c>
-      <c s="541" r="K118">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L118">
+      <c t="s" s="541" r="K118">
         <v>21</v>
       </c>
     </row>
@@ -13690,10 +13341,7 @@
       <c t="s" s="541" r="J119">
         <v>37</v>
       </c>
-      <c s="541" r="K119">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L119">
+      <c t="s" s="541" r="K119">
         <v>791</v>
       </c>
     </row>
@@ -13731,9 +13379,6 @@
       <c s="541" r="K120">
         <v/>
       </c>
-      <c s="541" r="L120">
-        <v/>
-      </c>
     </row>
     <row r="121">
       <c t="s" s="541" r="A121">
@@ -13769,9 +13414,6 @@
       <c s="541" r="K121">
         <v/>
       </c>
-      <c s="541" r="L121">
-        <v/>
-      </c>
     </row>
     <row r="122">
       <c t="s" s="541" r="A122">
@@ -13807,9 +13449,6 @@
       <c s="541" r="K122">
         <v/>
       </c>
-      <c s="541" r="L122">
-        <v/>
-      </c>
     </row>
     <row r="123">
       <c t="s" s="541" r="A123">
@@ -13842,10 +13481,7 @@
       <c t="s" s="541" r="J123">
         <v>37</v>
       </c>
-      <c s="541" r="K123">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L123">
+      <c t="s" s="541" r="K123">
         <v>21</v>
       </c>
     </row>
@@ -13880,10 +13516,7 @@
       <c t="s" s="541" r="J124">
         <v>866</v>
       </c>
-      <c s="541" r="K124">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L124">
+      <c t="s" s="541" r="K124">
         <v>21</v>
       </c>
     </row>
@@ -13921,9 +13554,6 @@
       <c s="541" r="K125">
         <v/>
       </c>
-      <c s="541" r="L125">
-        <v/>
-      </c>
     </row>
     <row r="126">
       <c t="s" s="541" r="A126">
@@ -13959,9 +13589,6 @@
       <c s="541" r="K126">
         <v/>
       </c>
-      <c s="541" r="L126">
-        <v/>
-      </c>
     </row>
     <row r="127">
       <c t="s" s="541" r="A127">
@@ -13994,10 +13621,7 @@
       <c t="s" s="541" r="J127">
         <v>37</v>
       </c>
-      <c s="541" r="K127">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L127">
+      <c t="s" s="541" r="K127">
         <v>21</v>
       </c>
     </row>
@@ -14032,10 +13656,7 @@
       <c t="s" s="541" r="J128">
         <v>328</v>
       </c>
-      <c s="541" r="K128">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L128">
+      <c t="s" s="541" r="K128">
         <v>21</v>
       </c>
     </row>
@@ -14073,9 +13694,6 @@
       <c s="541" r="K129">
         <v/>
       </c>
-      <c s="541" r="L129">
-        <v/>
-      </c>
     </row>
     <row r="130">
       <c t="s" s="541" r="A130">
@@ -14108,10 +13726,7 @@
       <c t="s" s="541" r="J130">
         <v>106</v>
       </c>
-      <c s="541" r="K130">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L130">
+      <c t="s" s="541" r="K130">
         <v>21</v>
       </c>
     </row>
@@ -14149,9 +13764,6 @@
       <c s="541" r="K131">
         <v/>
       </c>
-      <c s="541" r="L131">
-        <v/>
-      </c>
     </row>
     <row r="132">
       <c t="s" s="541" r="A132">
@@ -14187,9 +13799,6 @@
       <c s="541" r="K132">
         <v/>
       </c>
-      <c s="541" r="L132">
-        <v/>
-      </c>
     </row>
     <row r="133">
       <c t="s" s="541" r="A133">
@@ -14225,9 +13834,6 @@
       <c s="541" r="K133">
         <v/>
       </c>
-      <c s="541" r="L133">
-        <v/>
-      </c>
     </row>
     <row r="134">
       <c t="s" s="541" r="A134">
@@ -14260,10 +13866,7 @@
       <c s="541" r="J134">
         <v/>
       </c>
-      <c s="541" r="K134">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L134">
+      <c t="s" s="541" r="K134">
         <v>21</v>
       </c>
     </row>
@@ -14298,10 +13901,7 @@
       <c t="s" s="541" r="J135">
         <v>937</v>
       </c>
-      <c s="541" r="K135">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L135">
+      <c t="s" s="541" r="K135">
         <v>21</v>
       </c>
     </row>
@@ -14336,10 +13936,7 @@
       <c t="s" s="541" r="J136">
         <v>564</v>
       </c>
-      <c s="541" r="K136">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L136">
+      <c t="s" s="541" r="K136">
         <v>21</v>
       </c>
     </row>
@@ -14377,9 +13974,6 @@
       <c s="541" r="K137">
         <v/>
       </c>
-      <c s="541" r="L137">
-        <v/>
-      </c>
     </row>
     <row r="138">
       <c t="s" s="541" r="A138">
@@ -14412,10 +14006,7 @@
       <c t="s" s="541" r="J138">
         <v>37</v>
       </c>
-      <c s="541" r="K138">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L138">
+      <c t="s" s="541" r="K138">
         <v>21</v>
       </c>
     </row>
@@ -14450,10 +14041,7 @@
       <c t="s" s="541" r="J139">
         <v>223</v>
       </c>
-      <c s="541" r="K139">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L139">
+      <c t="s" s="541" r="K139">
         <v>21</v>
       </c>
     </row>
@@ -14488,10 +14076,7 @@
       <c t="s" s="541" r="J140">
         <v>37</v>
       </c>
-      <c s="541" r="K140">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L140">
+      <c t="s" s="541" r="K140">
         <v>21</v>
       </c>
     </row>
@@ -14526,10 +14111,7 @@
       <c t="s" s="541" r="J141">
         <v>352</v>
       </c>
-      <c s="541" r="K141">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L141">
+      <c t="s" s="541" r="K141">
         <v>21</v>
       </c>
     </row>
@@ -14564,10 +14146,7 @@
       <c t="s" s="541" r="J142">
         <v>37</v>
       </c>
-      <c s="541" r="K142">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L142">
+      <c t="s" s="541" r="K142">
         <v>21</v>
       </c>
     </row>
@@ -14602,10 +14181,7 @@
       <c t="s" s="541" r="J143">
         <v>37</v>
       </c>
-      <c s="541" r="K143">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L143">
+      <c t="s" s="541" r="K143">
         <v>21</v>
       </c>
     </row>
@@ -14640,10 +14216,7 @@
       <c t="s" s="541" r="J144">
         <v>37</v>
       </c>
-      <c s="541" r="K144">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L144">
+      <c t="s" s="541" r="K144">
         <v>21</v>
       </c>
     </row>
@@ -14678,10 +14251,7 @@
       <c t="s" s="541" r="J145">
         <v>20</v>
       </c>
-      <c s="541" r="K145">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L145">
+      <c t="s" s="541" r="K145">
         <v>21</v>
       </c>
     </row>
@@ -14716,10 +14286,7 @@
       <c t="s" s="541" r="J146">
         <v>37</v>
       </c>
-      <c s="541" r="K146">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L146">
+      <c t="s" s="541" r="K146">
         <v>321</v>
       </c>
     </row>
@@ -14736,8 +14303,8 @@
       <c t="s" s="430" r="D147">
         <v>1017</v>
       </c>
-      <c s="431" r="E147">
-        <v/>
+      <c t="s" s="431" r="E147">
+        <v>1017</v>
       </c>
       <c t="s" s="541" r="F147">
         <v>379</v>
@@ -14755,9 +14322,6 @@
         <v>1021</v>
       </c>
       <c s="541" r="K147">
-        <v/>
-      </c>
-      <c s="541" r="L147">
         <v/>
       </c>
     </row>
@@ -14795,9 +14359,6 @@
       <c s="541" r="K148">
         <v/>
       </c>
-      <c s="541" r="L148">
-        <v/>
-      </c>
     </row>
     <row r="149">
       <c t="s" s="541" r="A149">
@@ -14830,10 +14391,7 @@
       <c t="s" s="541" r="J149">
         <v>223</v>
       </c>
-      <c s="541" r="K149">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L149">
+      <c t="s" s="541" r="K149">
         <v>21</v>
       </c>
     </row>
@@ -14868,10 +14426,7 @@
       <c t="s" s="541" r="J150">
         <v>1042</v>
       </c>
-      <c s="541" r="K150">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L150">
+      <c t="s" s="541" r="K150">
         <v>21</v>
       </c>
     </row>
@@ -14906,10 +14461,7 @@
       <c t="s" s="541" r="J151">
         <v>106</v>
       </c>
-      <c s="541" r="K151">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L151">
+      <c t="s" s="541" r="K151">
         <v>21</v>
       </c>
     </row>
@@ -14947,9 +14499,6 @@
       <c s="541" r="K152">
         <v/>
       </c>
-      <c s="541" r="L152">
-        <v/>
-      </c>
     </row>
     <row r="153">
       <c t="s" s="541" r="A153">
@@ -14985,9 +14534,6 @@
       <c s="541" r="K153">
         <v/>
       </c>
-      <c s="541" r="L153">
-        <v/>
-      </c>
     </row>
     <row r="154">
       <c t="s" s="541" r="A154">
@@ -15023,9 +14569,6 @@
       <c s="541" r="K154">
         <v/>
       </c>
-      <c s="541" r="L154">
-        <v/>
-      </c>
     </row>
     <row r="155">
       <c t="s" s="541" r="A155">
@@ -15058,10 +14601,7 @@
       <c t="s" s="541" r="J155">
         <v>352</v>
       </c>
-      <c s="541" r="K155">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L155">
+      <c t="s" s="541" r="K155">
         <v>21</v>
       </c>
     </row>
@@ -15096,10 +14636,7 @@
       <c t="s" s="541" r="J156">
         <v>1083</v>
       </c>
-      <c s="541" r="K156">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L156">
+      <c t="s" s="541" r="K156">
         <v>21</v>
       </c>
     </row>
@@ -15134,10 +14671,7 @@
       <c t="s" s="541" r="J157">
         <v>1089</v>
       </c>
-      <c s="541" r="K157">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L157">
+      <c t="s" s="541" r="K157">
         <v>21</v>
       </c>
     </row>
@@ -15172,10 +14706,7 @@
       <c t="s" s="541" r="J158">
         <v>37</v>
       </c>
-      <c s="541" r="K158">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L158">
+      <c t="s" s="541" r="K158">
         <v>21</v>
       </c>
     </row>
@@ -15210,10 +14741,7 @@
       <c t="s" s="541" r="J159">
         <v>28</v>
       </c>
-      <c s="541" r="K159">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L159">
+      <c t="s" s="541" r="K159">
         <v>21</v>
       </c>
     </row>
@@ -15248,10 +14776,7 @@
       <c t="s" s="541" r="J160">
         <v>99</v>
       </c>
-      <c s="541" r="K160">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L160">
+      <c t="s" s="541" r="K160">
         <v>21</v>
       </c>
     </row>
@@ -15289,9 +14814,6 @@
       <c s="541" r="K161">
         <v/>
       </c>
-      <c s="541" r="L161">
-        <v/>
-      </c>
     </row>
     <row r="162">
       <c t="s" s="541" r="A162">
@@ -15327,9 +14849,6 @@
       <c s="541" r="K162">
         <v/>
       </c>
-      <c s="541" r="L162">
-        <v/>
-      </c>
     </row>
     <row r="163">
       <c t="s" s="541" r="A163">
@@ -15365,9 +14884,6 @@
       <c s="541" r="K163">
         <v/>
       </c>
-      <c s="541" r="L163">
-        <v/>
-      </c>
     </row>
     <row r="164">
       <c t="s" s="541" r="A164">
@@ -15400,10 +14916,7 @@
       <c t="s" s="541" r="J164">
         <v>45</v>
       </c>
-      <c s="541" r="K164">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L164">
+      <c t="s" s="541" r="K164">
         <v>21</v>
       </c>
     </row>
@@ -15441,9 +14954,6 @@
       <c s="541" r="K165">
         <v/>
       </c>
-      <c s="541" r="L165">
-        <v/>
-      </c>
     </row>
     <row r="166">
       <c t="s" s="541" r="A166">
@@ -15479,9 +14989,6 @@
       <c s="541" r="K166">
         <v/>
       </c>
-      <c s="541" r="L166">
-        <v/>
-      </c>
     </row>
     <row r="167">
       <c t="s" s="541" r="A167">
@@ -15514,10 +15021,7 @@
       <c t="s" s="541" r="J167">
         <v>223</v>
       </c>
-      <c s="541" r="K167">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L167">
+      <c t="s" s="541" r="K167">
         <v>21</v>
       </c>
     </row>
@@ -15555,9 +15059,6 @@
       <c s="541" r="K168">
         <v/>
       </c>
-      <c s="541" r="L168">
-        <v/>
-      </c>
     </row>
     <row r="169">
       <c t="s" s="541" r="A169">
@@ -15590,10 +15091,7 @@
       <c t="s" s="541" r="J169">
         <v>37</v>
       </c>
-      <c s="541" r="K169">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L169">
+      <c t="s" s="541" r="K169">
         <v>21</v>
       </c>
     </row>
@@ -15631,9 +15129,6 @@
       <c s="541" r="K170">
         <v/>
       </c>
-      <c s="541" r="L170">
-        <v/>
-      </c>
     </row>
     <row r="171">
       <c t="s" s="541" r="A171">
@@ -15669,9 +15164,6 @@
       <c s="541" r="K171">
         <v/>
       </c>
-      <c s="541" r="L171">
-        <v/>
-      </c>
     </row>
     <row r="172">
       <c t="s" s="541" r="A172">
@@ -15707,9 +15199,6 @@
       <c s="541" r="K172">
         <v/>
       </c>
-      <c s="541" r="L172">
-        <v/>
-      </c>
     </row>
     <row r="173">
       <c t="s" s="541" r="A173">
@@ -15742,10 +15231,7 @@
       <c t="s" s="541" r="J173">
         <v>20</v>
       </c>
-      <c s="541" r="K173">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L173">
+      <c t="s" s="541" r="K173">
         <v>21</v>
       </c>
     </row>
@@ -15780,10 +15266,7 @@
       <c t="s" s="541" r="J174">
         <v>37</v>
       </c>
-      <c s="541" r="K174">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L174">
+      <c t="s" s="541" r="K174">
         <v>21</v>
       </c>
     </row>
@@ -15821,9 +15304,6 @@
       <c s="541" r="K175">
         <v/>
       </c>
-      <c s="541" r="L175">
-        <v/>
-      </c>
     </row>
     <row r="176">
       <c t="s" s="541" r="A176">
@@ -15856,10 +15336,7 @@
       <c t="s" s="541" r="J176">
         <v>1210</v>
       </c>
-      <c s="541" r="K176">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L176">
+      <c t="s" s="541" r="K176">
         <v>21</v>
       </c>
     </row>
@@ -15894,10 +15371,7 @@
       <c t="s" s="541" r="J177">
         <v>223</v>
       </c>
-      <c s="541" r="K177">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L177">
+      <c t="s" s="541" r="K177">
         <v>21</v>
       </c>
     </row>
@@ -15932,10 +15406,7 @@
       <c t="s" s="541" r="J178">
         <v>1223</v>
       </c>
-      <c s="541" r="K178">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L178">
+      <c t="s" s="541" r="K178">
         <v>21</v>
       </c>
     </row>
@@ -15970,10 +15441,7 @@
       <c t="s" s="541" r="J179">
         <v>106</v>
       </c>
-      <c s="541" r="K179">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L179">
+      <c t="s" s="541" r="K179">
         <v>21</v>
       </c>
     </row>
@@ -16008,10 +15476,7 @@
       <c t="s" s="541" r="J180">
         <v>120</v>
       </c>
-      <c s="541" r="K180">
-        <v/>
-      </c>
-      <c t="s" s="541" r="L180">
+      <c t="s" s="541" r="K180">
         <v>21</v>
       </c>
     </row>
@@ -16049,9 +15514,6 @@
       <c s="541" r="K181">
         <v/>
       </c>
-      <c s="541" r="L181">
-        <v/>
-      </c>
     </row>
     <row r="182">
       <c t="s" s="542" r="A182">
@@ -16084,10 +15546,7 @@
       <c t="s" s="542" r="J182">
         <v>1247</v>
       </c>
-      <c s="542" r="K182">
-        <v/>
-      </c>
-      <c t="s" s="542" r="L182">
+      <c t="s" s="542" r="K182">
         <v>21</v>
       </c>
     </row>
